--- a/data/SimulationOutputs.xlsx
+++ b/data/SimulationOutputs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gcarniel\MATLAB Drive\Demo\hev-p4-app\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mathworks-my.sharepoint.com/personal/gcarniel_mathworks_com/Documents/MATLAB/SimulinkCompilerDemos/hev-p4-app/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B466B-DEA7-4CBB-BC1B-1CB8139DBE2B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{757B466B-DEA7-4CBB-BC1B-1CB8139DBE2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="59854" yWindow="7423" windowWidth="5975" windowHeight="6257" xr2:uid="{72570590-EB70-44F0-B50C-0683038DAA4E}"/>
+    <workbookView xWindow="-11436" yWindow="1728" windowWidth="23040" windowHeight="12204" xr2:uid="{72570590-EB70-44F0-B50C-0683038DAA4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -433,7 +433,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
